--- a/output/sample_2_estimate/collected_parameters.xlsx
+++ b/output/sample_2_estimate/collected_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwal5\Documents\GitHub\SMAREACTcleaned\output\sample_2_estimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED4A02-B571-4965-8765-8951FAEECE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB7523-EB65-4E4E-8D58-7A12F2D3A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="0" windowWidth="10260" windowHeight="13080" xr2:uid="{DACB1D41-EAB3-4BEC-8AFC-2C13DC5574EB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{DACB1D41-EAB3-4BEC-8AFC-2C13DC5574EB}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEF5FB6-CEAF-4D27-A894-EC2C5E96E898}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -608,112 +608,110 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>461.44484832971602</v>
+        <v>15500000</v>
       </c>
       <c r="C4">
-        <f>B4-273.15</f>
-        <v>188.29484832971605</v>
+        <f>B4/1000000</f>
+        <v>15.5</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
-        <v>433.15</v>
+      <c r="F4" s="1">
+        <v>15500000</v>
       </c>
       <c r="G4">
-        <f>F4-273.15</f>
-        <v>160</v>
-      </c>
-      <c r="H4">
-        <v>473.15</v>
+        <f>F4/1000000</f>
+        <v>15.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>17500000</v>
       </c>
       <c r="I4">
-        <f>H4-273.15</f>
-        <v>200</v>
+        <f>H4/1000000</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <f>B4 - 437.196659862755</f>
-        <v>24.248188466961039</v>
+        <v>15300000</v>
       </c>
       <c r="C5">
-        <f>B5</f>
-        <v>24.248188466961039</v>
+        <f>B5/1000000</f>
+        <v>15.3</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5">
-        <v>10</v>
+      <c r="F5" s="1">
+        <v>15300000</v>
       </c>
       <c r="G5">
-        <f>F5</f>
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
+        <f>F5/1000000</f>
+        <v>15.3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>17300000</v>
       </c>
       <c r="I5">
-        <f>H5</f>
-        <v>50</v>
+        <f>H5/1000000</f>
+        <v>17.3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>472.10928053395497</v>
+        <v>1.9350749262481301E-2</v>
       </c>
       <c r="C6">
-        <f>B6-273.15</f>
-        <v>198.959280533955</v>
+        <f>B6</f>
+        <v>1.9350749262481301E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
       <c r="F6">
-        <v>461.15</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
-        <f>F6-273.15</f>
-        <v>188</v>
+        <f>F6</f>
+        <v>0.01</v>
       </c>
       <c r="H6">
-        <v>501.15</v>
+        <v>0.05</v>
       </c>
       <c r="I6">
-        <f>H6-273.15</f>
-        <v>228</v>
+        <f>H6</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <f>490.399467832146-B6</f>
-        <v>18.290187298191029</v>
+        <v>461.44484832971602</v>
       </c>
       <c r="C7">
-        <f>B7</f>
-        <v>18.290187298191029</v>
+        <f>B7-273.15</f>
+        <v>188.29484832971605</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -722,132 +720,134 @@
         <v>22</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>433.15</v>
       </c>
       <c r="G7">
-        <f>F7</f>
-        <v>10</v>
+        <f>F7-273.15</f>
+        <v>160</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>473.15</v>
       </c>
       <c r="I7">
-        <f>H7</f>
-        <v>50</v>
+        <f>H7-273.15</f>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <f>B7 - 437.196659862755</f>
+        <v>24.248188466961039</v>
+      </c>
+      <c r="C8">
+        <f>B8</f>
+        <v>24.248188466961039</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>15500000</v>
-      </c>
-      <c r="C8">
-        <f>B8/1000000</f>
-        <v>15.5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
-        <v>15500000</v>
-      </c>
       <c r="G8">
-        <f>F8/1000000</f>
-        <v>15.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>17500000</v>
+        <f>F8</f>
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
       </c>
       <c r="I8">
-        <f>H8/1000000</f>
-        <v>17.5</v>
+        <f>H8</f>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>15300000</v>
+        <v>472.10928053395497</v>
       </c>
       <c r="C9">
-        <f>B9/1000000</f>
-        <v>15.3</v>
+        <f>B9-273.15</f>
+        <v>198.959280533955</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1">
-        <v>15300000</v>
+      <c r="F9">
+        <v>461.15</v>
       </c>
       <c r="G9">
-        <f>F9/1000000</f>
-        <v>15.3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>17300000</v>
+        <f>F9-273.15</f>
+        <v>188</v>
+      </c>
+      <c r="H9">
+        <v>501.15</v>
       </c>
       <c r="I9">
-        <f>H9/1000000</f>
-        <v>17.3</v>
+        <f>H9-273.15</f>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f>490.399467832146-B9</f>
+        <v>18.290187298191029</v>
       </c>
       <c r="C10">
         <f>B10</f>
-        <v>0</v>
+        <v>18.290187298191029</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>F10</f>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <f>H10</f>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1.9350749262481301E-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C18" si="0">B11</f>
-        <v>1.9350749262481301E-2</v>
+        <f>B11</f>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
-        <v>0.01</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G14" si="1">F11</f>
-        <v>0.01</v>
-      </c>
-      <c r="H11">
-        <v>0.05</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ref="I11:I18" si="2">H11</f>
-        <v>0.05</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:C18" si="0">B12</f>
         <v>0</v>
       </c>
       <c r="D12" t="s">
@@ -921,14 +921,14 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G14" si="1">F14</f>
         <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I14" si="2">H14</f>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1120,112 +1120,110 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>458.34510457269198</v>
+        <v>12362433.658303</v>
       </c>
       <c r="C4">
-        <f>B4-273.15</f>
-        <v>185.195104572692</v>
+        <f>B4/1000000</f>
+        <v>12.362433658303001</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
-        <v>433.15</v>
+      <c r="F4" s="1">
+        <v>12000000</v>
       </c>
       <c r="G4">
-        <f>F4-273.15</f>
-        <v>160</v>
-      </c>
-      <c r="H4">
-        <v>473.15</v>
+        <f>F4/1000000</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>16000000</v>
       </c>
       <c r="I4">
-        <f>H4-273.15</f>
-        <v>200</v>
+        <f>H4/1000000</f>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <f>B4 - 433.367734886861</f>
-        <v>24.977369685830979</v>
+        <v>14287830.7184934</v>
       </c>
       <c r="C5">
-        <f>B5</f>
-        <v>24.977369685830979</v>
+        <f>B5/1000000</f>
+        <v>14.287830718493399</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5">
-        <v>10</v>
+      <c r="F5" s="1">
+        <v>12000000</v>
       </c>
       <c r="G5">
-        <f>F5</f>
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
+        <f>F5/1000000</f>
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16000000</v>
       </c>
       <c r="I5">
-        <f>H5</f>
-        <v>50</v>
+        <f>H5/1000000</f>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>469.82997039761</v>
+        <v>1.65387834935255E-2</v>
       </c>
       <c r="C6">
-        <f>B6-273.15</f>
-        <v>196.67997039761002</v>
+        <f>B6</f>
+        <v>1.65387834935255E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
       <c r="F6">
-        <v>461.15</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>F6-273.15</f>
-        <v>188</v>
+        <f>F6</f>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>501.15</v>
+        <v>0.03</v>
       </c>
       <c r="I6">
-        <f>H6-273.15</f>
-        <v>228</v>
+        <f>H6</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <f>490.343142300459-B6</f>
-        <v>20.513171902849024</v>
+        <v>458.34510457269198</v>
       </c>
       <c r="C7">
-        <f>B7</f>
-        <v>20.513171902849024</v>
+        <f>B7-273.15</f>
+        <v>185.195104572692</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1234,132 +1232,134 @@
         <v>22</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>433.15</v>
       </c>
       <c r="G7">
-        <f>F7</f>
-        <v>10</v>
+        <f>F7-273.15</f>
+        <v>160</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>473.15</v>
       </c>
       <c r="I7">
-        <f>H7</f>
-        <v>50</v>
+        <f>H7-273.15</f>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>12362433.658303</v>
+        <f>B7 - 433.367734886861</f>
+        <v>24.977369685830979</v>
       </c>
       <c r="C8">
-        <f>B8/1000000</f>
-        <v>12.362433658303001</v>
+        <f>B8</f>
+        <v>24.977369685830979</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1">
-        <v>12000000</v>
+      <c r="F8">
+        <v>10</v>
       </c>
       <c r="G8">
-        <f>F8/1000000</f>
-        <v>12</v>
-      </c>
-      <c r="H8" s="1">
-        <v>16000000</v>
+        <f>F8</f>
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
       </c>
       <c r="I8">
-        <f>H8/1000000</f>
-        <v>16</v>
+        <f>H8</f>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>14287830.7184934</v>
+        <v>469.82997039761</v>
       </c>
       <c r="C9">
-        <f>B9/1000000</f>
-        <v>14.287830718493399</v>
+        <f>B9-273.15</f>
+        <v>196.67997039761002</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1">
-        <v>12000000</v>
+      <c r="F9">
+        <v>461.15</v>
       </c>
       <c r="G9">
-        <f>F9/1000000</f>
-        <v>12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>16000000</v>
+        <f>F9-273.15</f>
+        <v>188</v>
+      </c>
+      <c r="H9">
+        <v>501.15</v>
       </c>
       <c r="I9">
-        <f>H9/1000000</f>
-        <v>16</v>
+        <f>H9-273.15</f>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f>490.343142300459-B9</f>
+        <v>20.513171902849024</v>
       </c>
       <c r="C10">
         <f>B10</f>
-        <v>0</v>
+        <v>20.513171902849024</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>F10</f>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <f>H10</f>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1.65387834935255E-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C18" si="0">B11</f>
-        <v>1.65387834935255E-2</v>
+        <f>B11</f>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:I14" si="1">F11</f>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.03</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:C18" si="0">B12</f>
         <v>0</v>
       </c>
       <c r="D12" t="s">
@@ -1433,7 +1433,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G14:I14" si="1">F14</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="H14" s="1">
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47E2B46-95AF-4983-96E4-6F27CC548219}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1612,112 +1612,72 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>456.00445233883499</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12400000</v>
       </c>
       <c r="C4">
-        <f>B4-273.15</f>
-        <v>182.85445233883502</v>
+        <f>B4/1000000</f>
+        <v>12.4</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>433.15</v>
-      </c>
-      <c r="G4">
-        <f>F4-273.15</f>
-        <v>160</v>
-      </c>
-      <c r="H4">
-        <v>473.15</v>
-      </c>
-      <c r="I4">
-        <f>H4-273.15</f>
-        <v>200</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <f>B4 - 432.491365854936</f>
-        <v>23.513086483898974</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14300000</v>
       </c>
       <c r="C5">
-        <f>B5</f>
-        <v>23.513086483898974</v>
+        <f>B5/1000000</f>
+        <v>14.3</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <f>F5</f>
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <f>H5</f>
-        <v>50</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>463.22317386362801</v>
+        <v>1.65387834935255E-2</v>
       </c>
       <c r="C6">
-        <f>B6-273.15</f>
-        <v>190.07317386362803</v>
+        <f>B6</f>
+        <v>1.65387834935255E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>461.15</v>
-      </c>
-      <c r="G6">
-        <f>F6-273.15</f>
-        <v>188</v>
-      </c>
-      <c r="H6">
-        <v>501.15</v>
-      </c>
-      <c r="I6">
-        <f>H6-273.15</f>
-        <v>228</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <f>493.579936225908-B6</f>
-        <v>30.356762362279994</v>
+        <v>456.00445233883499</v>
       </c>
       <c r="C7">
-        <f>B7</f>
-        <v>30.356762362279994</v>
+        <f>B7-273.15</f>
+        <v>182.85445233883502</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1726,88 +1686,128 @@
         <v>22</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>433.15</v>
       </c>
       <c r="G7">
-        <f>F7</f>
-        <v>10</v>
+        <f>F7-273.15</f>
+        <v>160</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>473.15</v>
       </c>
       <c r="I7">
-        <f>H7</f>
-        <v>50</v>
+        <f>H7-273.15</f>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <f>B7 - 432.491365854936</f>
+        <v>23.513086483898974</v>
+      </c>
+      <c r="C8">
+        <f>B8</f>
+        <v>23.513086483898974</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>12400000</v>
-      </c>
-      <c r="C8">
-        <f>B8/1000000</f>
-        <v>12.4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8">
+        <f>F8</f>
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <f>H8</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>14300000</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>463.22317386362801</v>
       </c>
       <c r="C9">
-        <f>B9/1000000</f>
-        <v>14.3</v>
+        <f>B9-273.15</f>
+        <v>190.07317386362803</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>461.15</v>
+      </c>
+      <c r="G9">
+        <f>F9-273.15</f>
+        <v>188</v>
+      </c>
+      <c r="H9">
+        <v>501.15</v>
+      </c>
+      <c r="I9">
+        <f>H9-273.15</f>
+        <v>228</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f>493.579936225908-B9</f>
+        <v>30.356762362279994</v>
       </c>
       <c r="C10">
         <f>B10</f>
-        <v>0</v>
+        <v>30.356762362279994</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>F10</f>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <f>H10</f>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1.65387834935255E-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C18" si="0">B11</f>
-        <v>1.65387834935255E-2</v>
+        <f>B11</f>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C12:C18" si="0">B12</f>
         <v>0</v>
       </c>
       <c r="D12" t="s">
@@ -1897,7 +1897,7 @@
         <v>0.01</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G11:I18" si="1">F15</f>
+        <f t="shared" ref="G15:I18" si="1">F15</f>
         <v>0.01</v>
       </c>
       <c r="H15">
